--- a/app/files/table_test.xlsx
+++ b/app/files/table_test.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="asdasdadsБюджет" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="asрывлофрывлфровasdasdadsБюдже" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -199,6 +199,50 @@
     <tableColumn id="1" name="№"/>
     <tableColumn id="2" name="Категории доходов"/>
     <tableColumn id="3" name="Сумма"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Расходы" displayName="Расходы" ref="A15:AJ30" headerRowCount="1">
+  <autoFilter ref="A15:AJ30"/>
+  <tableColumns count="36">
+    <tableColumn id="1" name="Колонка 1"/>
+    <tableColumn id="2" name="Колонка 2"/>
+    <tableColumn id="3" name="Колонка 3"/>
+    <tableColumn id="4" name="Колонка 4"/>
+    <tableColumn id="5" name="Колонка 5"/>
+    <tableColumn id="6" name="Колонка 6"/>
+    <tableColumn id="7" name="Колонка 7"/>
+    <tableColumn id="8" name="Колонка 8"/>
+    <tableColumn id="9" name="Колонка 9"/>
+    <tableColumn id="10" name="Колонка 10"/>
+    <tableColumn id="11" name="Колонка 11"/>
+    <tableColumn id="12" name="Колонка 12"/>
+    <tableColumn id="13" name="Колонка 13"/>
+    <tableColumn id="14" name="Колонка 14"/>
+    <tableColumn id="15" name="Колонка 15"/>
+    <tableColumn id="16" name="Колонка 16"/>
+    <tableColumn id="17" name="Колонка 17"/>
+    <tableColumn id="18" name="Колонка 18"/>
+    <tableColumn id="19" name="Колонка 19"/>
+    <tableColumn id="20" name="Колонка 20"/>
+    <tableColumn id="21" name="Колонка 21"/>
+    <tableColumn id="22" name="Колонка 22"/>
+    <tableColumn id="23" name="Колонка 23"/>
+    <tableColumn id="24" name="Колонка 24"/>
+    <tableColumn id="25" name="Колонка 25"/>
+    <tableColumn id="26" name="Колонка 26"/>
+    <tableColumn id="27" name="Колонка 27"/>
+    <tableColumn id="28" name="Колонка 28"/>
+    <tableColumn id="29" name="Колонка 29"/>
+    <tableColumn id="30" name="Колонка 30"/>
+    <tableColumn id="31" name="Колонка 31"/>
+    <tableColumn id="32" name="Колонка 32"/>
+    <tableColumn id="33" name="Колонка 33"/>
+    <tableColumn id="34" name="Колонка 34"/>
+    <tableColumn id="35" name="Колонка 35"/>
+    <tableColumn id="36" name="Колонка 36"/>
   </tableColumns>
 </table>
 </file>
@@ -492,7 +536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,13 +650,774 @@
         <v/>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Расходы</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 1</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 2</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 3</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 4</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 5</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 6</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 7</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 8</t>
+        </is>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 9</t>
+        </is>
+      </c>
+      <c r="J15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 10</t>
+        </is>
+      </c>
+      <c r="K15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 11</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 12</t>
+        </is>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 13</t>
+        </is>
+      </c>
+      <c r="N15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 14</t>
+        </is>
+      </c>
+      <c r="O15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 15</t>
+        </is>
+      </c>
+      <c r="P15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 16</t>
+        </is>
+      </c>
+      <c r="Q15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 17</t>
+        </is>
+      </c>
+      <c r="R15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 18</t>
+        </is>
+      </c>
+      <c r="S15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 19</t>
+        </is>
+      </c>
+      <c r="T15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 20</t>
+        </is>
+      </c>
+      <c r="U15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 21</t>
+        </is>
+      </c>
+      <c r="V15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 22</t>
+        </is>
+      </c>
+      <c r="W15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 23</t>
+        </is>
+      </c>
+      <c r="X15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 24</t>
+        </is>
+      </c>
+      <c r="Y15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 25</t>
+        </is>
+      </c>
+      <c r="Z15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 26</t>
+        </is>
+      </c>
+      <c r="AA15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 27</t>
+        </is>
+      </c>
+      <c r="AB15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 28</t>
+        </is>
+      </c>
+      <c r="AC15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 29</t>
+        </is>
+      </c>
+      <c r="AD15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 30</t>
+        </is>
+      </c>
+      <c r="AE15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 31</t>
+        </is>
+      </c>
+      <c r="AF15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 32</t>
+        </is>
+      </c>
+      <c r="AG15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 33</t>
+        </is>
+      </c>
+      <c r="AH15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 34</t>
+        </is>
+      </c>
+      <c r="AI15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 35</t>
+        </is>
+      </c>
+      <c r="AJ15" s="4" t="inlineStr">
+        <is>
+          <t>Колонка 36</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="n"/>
+      <c r="C16" s="4" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="4" t="n"/>
+      <c r="F16" s="4" t="n"/>
+      <c r="G16" s="4" t="n"/>
+      <c r="H16" s="4" t="n"/>
+      <c r="I16" s="4" t="n"/>
+      <c r="J16" s="4" t="n"/>
+      <c r="K16" s="4" t="n"/>
+      <c r="L16" s="4" t="n"/>
+      <c r="M16" s="4" t="n"/>
+      <c r="N16" s="4" t="n"/>
+      <c r="O16" s="4" t="n"/>
+      <c r="P16" s="4" t="n"/>
+      <c r="Q16" s="4" t="n"/>
+      <c r="R16" s="4" t="n"/>
+      <c r="S16" s="4" t="n"/>
+      <c r="T16" s="4" t="n"/>
+      <c r="U16" s="4" t="n"/>
+      <c r="V16" s="4" t="n"/>
+      <c r="W16" s="4" t="n"/>
+      <c r="X16" s="4" t="n"/>
+      <c r="Y16" s="4" t="n"/>
+      <c r="Z16" s="4" t="n"/>
+      <c r="AA16" s="4" t="n"/>
+      <c r="AB16" s="4" t="n"/>
+      <c r="AC16" s="4" t="n"/>
+      <c r="AD16" s="4" t="n"/>
+      <c r="AE16" s="4" t="n"/>
+      <c r="AF16" s="4" t="n"/>
+      <c r="AG16" s="4" t="n"/>
+      <c r="AH16" s="4" t="n"/>
+      <c r="AI16" s="4" t="n"/>
+      <c r="AJ16" s="4" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="n"/>
+      <c r="C17" s="4" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="4" t="n"/>
+      <c r="F17" s="4" t="n"/>
+      <c r="G17" s="4" t="n"/>
+      <c r="H17" s="4" t="n"/>
+      <c r="I17" s="4" t="n"/>
+      <c r="J17" s="4" t="n"/>
+      <c r="K17" s="4" t="n"/>
+      <c r="L17" s="4" t="n"/>
+      <c r="M17" s="4" t="n"/>
+      <c r="N17" s="4" t="n"/>
+      <c r="O17" s="4" t="n"/>
+      <c r="P17" s="4" t="n"/>
+      <c r="Q17" s="4" t="n"/>
+      <c r="R17" s="4" t="n"/>
+      <c r="S17" s="4" t="n"/>
+      <c r="T17" s="4" t="n"/>
+      <c r="U17" s="4" t="n"/>
+      <c r="V17" s="4" t="n"/>
+      <c r="W17" s="4" t="n"/>
+      <c r="X17" s="4" t="n"/>
+      <c r="Y17" s="4" t="n"/>
+      <c r="Z17" s="4" t="n"/>
+      <c r="AA17" s="4" t="n"/>
+      <c r="AB17" s="4" t="n"/>
+      <c r="AC17" s="4" t="n"/>
+      <c r="AD17" s="4" t="n"/>
+      <c r="AE17" s="4" t="n"/>
+      <c r="AF17" s="4" t="n"/>
+      <c r="AG17" s="4" t="n"/>
+      <c r="AH17" s="4" t="n"/>
+      <c r="AI17" s="4" t="n"/>
+      <c r="AJ17" s="4" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="4" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="4" t="n"/>
+      <c r="H18" s="4" t="n"/>
+      <c r="I18" s="4" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="4" t="n"/>
+      <c r="M18" s="4" t="n"/>
+      <c r="N18" s="4" t="n"/>
+      <c r="O18" s="4" t="n"/>
+      <c r="P18" s="4" t="n"/>
+      <c r="Q18" s="4" t="n"/>
+      <c r="R18" s="4" t="n"/>
+      <c r="S18" s="4" t="n"/>
+      <c r="T18" s="4" t="n"/>
+      <c r="U18" s="4" t="n"/>
+      <c r="V18" s="4" t="n"/>
+      <c r="W18" s="4" t="n"/>
+      <c r="X18" s="4" t="n"/>
+      <c r="Y18" s="4" t="n"/>
+      <c r="Z18" s="4" t="n"/>
+      <c r="AA18" s="4" t="n"/>
+      <c r="AB18" s="4" t="n"/>
+      <c r="AC18" s="4" t="n"/>
+      <c r="AD18" s="4" t="n"/>
+      <c r="AE18" s="4" t="n"/>
+      <c r="AF18" s="4" t="n"/>
+      <c r="AG18" s="4" t="n"/>
+      <c r="AH18" s="4" t="n"/>
+      <c r="AI18" s="4" t="n"/>
+      <c r="AJ18" s="4" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="n"/>
+      <c r="C19" s="4" t="n"/>
+      <c r="D19" s="4" t="n"/>
+      <c r="E19" s="4" t="n"/>
+      <c r="F19" s="4" t="n"/>
+      <c r="G19" s="4" t="n"/>
+      <c r="H19" s="4" t="n"/>
+      <c r="I19" s="4" t="n"/>
+      <c r="J19" s="4" t="n"/>
+      <c r="K19" s="4" t="n"/>
+      <c r="L19" s="4" t="n"/>
+      <c r="M19" s="4" t="n"/>
+      <c r="N19" s="4" t="n"/>
+      <c r="O19" s="4" t="n"/>
+      <c r="P19" s="4" t="n"/>
+      <c r="Q19" s="4" t="n"/>
+      <c r="R19" s="4" t="n"/>
+      <c r="S19" s="4" t="n"/>
+      <c r="T19" s="4" t="n"/>
+      <c r="U19" s="4" t="n"/>
+      <c r="V19" s="4" t="n"/>
+      <c r="W19" s="4" t="n"/>
+      <c r="X19" s="4" t="n"/>
+      <c r="Y19" s="4" t="n"/>
+      <c r="Z19" s="4" t="n"/>
+      <c r="AA19" s="4" t="n"/>
+      <c r="AB19" s="4" t="n"/>
+      <c r="AC19" s="4" t="n"/>
+      <c r="AD19" s="4" t="n"/>
+      <c r="AE19" s="4" t="n"/>
+      <c r="AF19" s="4" t="n"/>
+      <c r="AG19" s="4" t="n"/>
+      <c r="AH19" s="4" t="n"/>
+      <c r="AI19" s="4" t="n"/>
+      <c r="AJ19" s="4" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="4" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="4" t="n"/>
+      <c r="F20" s="4" t="n"/>
+      <c r="G20" s="4" t="n"/>
+      <c r="H20" s="4" t="n"/>
+      <c r="I20" s="4" t="n"/>
+      <c r="J20" s="4" t="n"/>
+      <c r="K20" s="4" t="n"/>
+      <c r="L20" s="4" t="n"/>
+      <c r="M20" s="4" t="n"/>
+      <c r="N20" s="4" t="n"/>
+      <c r="O20" s="4" t="n"/>
+      <c r="P20" s="4" t="n"/>
+      <c r="Q20" s="4" t="n"/>
+      <c r="R20" s="4" t="n"/>
+      <c r="S20" s="4" t="n"/>
+      <c r="T20" s="4" t="n"/>
+      <c r="U20" s="4" t="n"/>
+      <c r="V20" s="4" t="n"/>
+      <c r="W20" s="4" t="n"/>
+      <c r="X20" s="4" t="n"/>
+      <c r="Y20" s="4" t="n"/>
+      <c r="Z20" s="4" t="n"/>
+      <c r="AA20" s="4" t="n"/>
+      <c r="AB20" s="4" t="n"/>
+      <c r="AC20" s="4" t="n"/>
+      <c r="AD20" s="4" t="n"/>
+      <c r="AE20" s="4" t="n"/>
+      <c r="AF20" s="4" t="n"/>
+      <c r="AG20" s="4" t="n"/>
+      <c r="AH20" s="4" t="n"/>
+      <c r="AI20" s="4" t="n"/>
+      <c r="AJ20" s="4" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="4" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="4" t="n"/>
+      <c r="F21" s="4" t="n"/>
+      <c r="G21" s="4" t="n"/>
+      <c r="H21" s="4" t="n"/>
+      <c r="I21" s="4" t="n"/>
+      <c r="J21" s="4" t="n"/>
+      <c r="K21" s="4" t="n"/>
+      <c r="L21" s="4" t="n"/>
+      <c r="M21" s="4" t="n"/>
+      <c r="N21" s="4" t="n"/>
+      <c r="O21" s="4" t="n"/>
+      <c r="P21" s="4" t="n"/>
+      <c r="Q21" s="4" t="n"/>
+      <c r="R21" s="4" t="n"/>
+      <c r="S21" s="4" t="n"/>
+      <c r="T21" s="4" t="n"/>
+      <c r="U21" s="4" t="n"/>
+      <c r="V21" s="4" t="n"/>
+      <c r="W21" s="4" t="n"/>
+      <c r="X21" s="4" t="n"/>
+      <c r="Y21" s="4" t="n"/>
+      <c r="Z21" s="4" t="n"/>
+      <c r="AA21" s="4" t="n"/>
+      <c r="AB21" s="4" t="n"/>
+      <c r="AC21" s="4" t="n"/>
+      <c r="AD21" s="4" t="n"/>
+      <c r="AE21" s="4" t="n"/>
+      <c r="AF21" s="4" t="n"/>
+      <c r="AG21" s="4" t="n"/>
+      <c r="AH21" s="4" t="n"/>
+      <c r="AI21" s="4" t="n"/>
+      <c r="AJ21" s="4" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="4" t="n"/>
+      <c r="G22" s="4" t="n"/>
+      <c r="H22" s="4" t="n"/>
+      <c r="I22" s="4" t="n"/>
+      <c r="J22" s="4" t="n"/>
+      <c r="K22" s="4" t="n"/>
+      <c r="L22" s="4" t="n"/>
+      <c r="M22" s="4" t="n"/>
+      <c r="N22" s="4" t="n"/>
+      <c r="O22" s="4" t="n"/>
+      <c r="P22" s="4" t="n"/>
+      <c r="Q22" s="4" t="n"/>
+      <c r="R22" s="4" t="n"/>
+      <c r="S22" s="4" t="n"/>
+      <c r="T22" s="4" t="n"/>
+      <c r="U22" s="4" t="n"/>
+      <c r="V22" s="4" t="n"/>
+      <c r="W22" s="4" t="n"/>
+      <c r="X22" s="4" t="n"/>
+      <c r="Y22" s="4" t="n"/>
+      <c r="Z22" s="4" t="n"/>
+      <c r="AA22" s="4" t="n"/>
+      <c r="AB22" s="4" t="n"/>
+      <c r="AC22" s="4" t="n"/>
+      <c r="AD22" s="4" t="n"/>
+      <c r="AE22" s="4" t="n"/>
+      <c r="AF22" s="4" t="n"/>
+      <c r="AG22" s="4" t="n"/>
+      <c r="AH22" s="4" t="n"/>
+      <c r="AI22" s="4" t="n"/>
+      <c r="AJ22" s="4" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="4" t="n"/>
+      <c r="G23" s="4" t="n"/>
+      <c r="H23" s="4" t="n"/>
+      <c r="I23" s="4" t="n"/>
+      <c r="J23" s="4" t="n"/>
+      <c r="K23" s="4" t="n"/>
+      <c r="L23" s="4" t="n"/>
+      <c r="M23" s="4" t="n"/>
+      <c r="N23" s="4" t="n"/>
+      <c r="O23" s="4" t="n"/>
+      <c r="P23" s="4" t="n"/>
+      <c r="Q23" s="4" t="n"/>
+      <c r="R23" s="4" t="n"/>
+      <c r="S23" s="4" t="n"/>
+      <c r="T23" s="4" t="n"/>
+      <c r="U23" s="4" t="n"/>
+      <c r="V23" s="4" t="n"/>
+      <c r="W23" s="4" t="n"/>
+      <c r="X23" s="4" t="n"/>
+      <c r="Y23" s="4" t="n"/>
+      <c r="Z23" s="4" t="n"/>
+      <c r="AA23" s="4" t="n"/>
+      <c r="AB23" s="4" t="n"/>
+      <c r="AC23" s="4" t="n"/>
+      <c r="AD23" s="4" t="n"/>
+      <c r="AE23" s="4" t="n"/>
+      <c r="AF23" s="4" t="n"/>
+      <c r="AG23" s="4" t="n"/>
+      <c r="AH23" s="4" t="n"/>
+      <c r="AI23" s="4" t="n"/>
+      <c r="AJ23" s="4" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="4" t="n"/>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="4" t="n"/>
+      <c r="F24" s="4" t="n"/>
+      <c r="G24" s="4" t="n"/>
+      <c r="H24" s="4" t="n"/>
+      <c r="I24" s="4" t="n"/>
+      <c r="J24" s="4" t="n"/>
+      <c r="K24" s="4" t="n"/>
+      <c r="L24" s="4" t="n"/>
+      <c r="M24" s="4" t="n"/>
+      <c r="N24" s="4" t="n"/>
+      <c r="O24" s="4" t="n"/>
+      <c r="P24" s="4" t="n"/>
+      <c r="Q24" s="4" t="n"/>
+      <c r="R24" s="4" t="n"/>
+      <c r="S24" s="4" t="n"/>
+      <c r="T24" s="4" t="n"/>
+      <c r="U24" s="4" t="n"/>
+      <c r="V24" s="4" t="n"/>
+      <c r="W24" s="4" t="n"/>
+      <c r="X24" s="4" t="n"/>
+      <c r="Y24" s="4" t="n"/>
+      <c r="Z24" s="4" t="n"/>
+      <c r="AA24" s="4" t="n"/>
+      <c r="AB24" s="4" t="n"/>
+      <c r="AC24" s="4" t="n"/>
+      <c r="AD24" s="4" t="n"/>
+      <c r="AE24" s="4" t="n"/>
+      <c r="AF24" s="4" t="n"/>
+      <c r="AG24" s="4" t="n"/>
+      <c r="AH24" s="4" t="n"/>
+      <c r="AI24" s="4" t="n"/>
+      <c r="AJ24" s="4" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="4" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="4" t="n"/>
+      <c r="H25" s="4" t="n"/>
+      <c r="I25" s="4" t="n"/>
+      <c r="J25" s="4" t="n"/>
+      <c r="K25" s="4" t="n"/>
+      <c r="L25" s="4" t="n"/>
+      <c r="M25" s="4" t="n"/>
+      <c r="N25" s="4" t="n"/>
+      <c r="O25" s="4" t="n"/>
+      <c r="P25" s="4" t="n"/>
+      <c r="Q25" s="4" t="n"/>
+      <c r="R25" s="4" t="n"/>
+      <c r="S25" s="4" t="n"/>
+      <c r="T25" s="4" t="n"/>
+      <c r="U25" s="4" t="n"/>
+      <c r="V25" s="4" t="n"/>
+      <c r="W25" s="4" t="n"/>
+      <c r="X25" s="4" t="n"/>
+      <c r="Y25" s="4" t="n"/>
+      <c r="Z25" s="4" t="n"/>
+      <c r="AA25" s="4" t="n"/>
+      <c r="AB25" s="4" t="n"/>
+      <c r="AC25" s="4" t="n"/>
+      <c r="AD25" s="4" t="n"/>
+      <c r="AE25" s="4" t="n"/>
+      <c r="AF25" s="4" t="n"/>
+      <c r="AG25" s="4" t="n"/>
+      <c r="AH25" s="4" t="n"/>
+      <c r="AI25" s="4" t="n"/>
+      <c r="AJ25" s="4" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="C26" s="4" t="n"/>
+      <c r="D26" s="4" t="n"/>
+      <c r="E26" s="4" t="n"/>
+      <c r="F26" s="4" t="n"/>
+      <c r="G26" s="4" t="n"/>
+      <c r="H26" s="4" t="n"/>
+      <c r="I26" s="4" t="n"/>
+      <c r="J26" s="4" t="n"/>
+      <c r="K26" s="4" t="n"/>
+      <c r="L26" s="4" t="n"/>
+      <c r="M26" s="4" t="n"/>
+      <c r="N26" s="4" t="n"/>
+      <c r="O26" s="4" t="n"/>
+      <c r="P26" s="4" t="n"/>
+      <c r="Q26" s="4" t="n"/>
+      <c r="R26" s="4" t="n"/>
+      <c r="S26" s="4" t="n"/>
+      <c r="T26" s="4" t="n"/>
+      <c r="U26" s="4" t="n"/>
+      <c r="V26" s="4" t="n"/>
+      <c r="W26" s="4" t="n"/>
+      <c r="X26" s="4" t="n"/>
+      <c r="Y26" s="4" t="n"/>
+      <c r="Z26" s="4" t="n"/>
+      <c r="AA26" s="4" t="n"/>
+      <c r="AB26" s="4" t="n"/>
+      <c r="AC26" s="4" t="n"/>
+      <c r="AD26" s="4" t="n"/>
+      <c r="AE26" s="4" t="n"/>
+      <c r="AF26" s="4" t="n"/>
+      <c r="AG26" s="4" t="n"/>
+      <c r="AH26" s="4" t="n"/>
+      <c r="AI26" s="4" t="n"/>
+      <c r="AJ26" s="4" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="4" t="n"/>
+      <c r="C27" s="4" t="n"/>
+      <c r="D27" s="4" t="n"/>
+      <c r="E27" s="4" t="n"/>
+      <c r="F27" s="4" t="n"/>
+      <c r="G27" s="4" t="n"/>
+      <c r="H27" s="4" t="n"/>
+      <c r="I27" s="4" t="n"/>
+      <c r="J27" s="4" t="n"/>
+      <c r="K27" s="4" t="n"/>
+      <c r="L27" s="4" t="n"/>
+      <c r="M27" s="4" t="n"/>
+      <c r="N27" s="4" t="n"/>
+      <c r="O27" s="4" t="n"/>
+      <c r="P27" s="4" t="n"/>
+      <c r="Q27" s="4" t="n"/>
+      <c r="R27" s="4" t="n"/>
+      <c r="S27" s="4" t="n"/>
+      <c r="T27" s="4" t="n"/>
+      <c r="U27" s="4" t="n"/>
+      <c r="V27" s="4" t="n"/>
+      <c r="W27" s="4" t="n"/>
+      <c r="X27" s="4" t="n"/>
+      <c r="Y27" s="4" t="n"/>
+      <c r="Z27" s="4" t="n"/>
+      <c r="AA27" s="4" t="n"/>
+      <c r="AB27" s="4" t="n"/>
+      <c r="AC27" s="4" t="n"/>
+      <c r="AD27" s="4" t="n"/>
+      <c r="AE27" s="4" t="n"/>
+      <c r="AF27" s="4" t="n"/>
+      <c r="AG27" s="4" t="n"/>
+      <c r="AH27" s="4" t="n"/>
+      <c r="AI27" s="4" t="n"/>
+      <c r="AJ27" s="4" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="4" t="n"/>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="4" t="n"/>
+      <c r="F28" s="4" t="n"/>
+      <c r="G28" s="4" t="n"/>
+      <c r="H28" s="4" t="n"/>
+      <c r="I28" s="4" t="n"/>
+      <c r="J28" s="4" t="n"/>
+      <c r="K28" s="4" t="n"/>
+      <c r="L28" s="4" t="n"/>
+      <c r="M28" s="4" t="n"/>
+      <c r="N28" s="4" t="n"/>
+      <c r="O28" s="4" t="n"/>
+      <c r="P28" s="4" t="n"/>
+      <c r="Q28" s="4" t="n"/>
+      <c r="R28" s="4" t="n"/>
+      <c r="S28" s="4" t="n"/>
+      <c r="T28" s="4" t="n"/>
+      <c r="U28" s="4" t="n"/>
+      <c r="V28" s="4" t="n"/>
+      <c r="W28" s="4" t="n"/>
+      <c r="X28" s="4" t="n"/>
+      <c r="Y28" s="4" t="n"/>
+      <c r="Z28" s="4" t="n"/>
+      <c r="AA28" s="4" t="n"/>
+      <c r="AB28" s="4" t="n"/>
+      <c r="AC28" s="4" t="n"/>
+      <c r="AD28" s="4" t="n"/>
+      <c r="AE28" s="4" t="n"/>
+      <c r="AF28" s="4" t="n"/>
+      <c r="AG28" s="4" t="n"/>
+      <c r="AH28" s="4" t="n"/>
+      <c r="AI28" s="4" t="n"/>
+      <c r="AJ28" s="4" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="4" t="n"/>
+      <c r="C29" s="4" t="n"/>
+      <c r="D29" s="4" t="n"/>
+      <c r="E29" s="4" t="n"/>
+      <c r="F29" s="4" t="n"/>
+      <c r="G29" s="4" t="n"/>
+      <c r="H29" s="4" t="n"/>
+      <c r="I29" s="4" t="n"/>
+      <c r="J29" s="4" t="n"/>
+      <c r="K29" s="4" t="n"/>
+      <c r="L29" s="4" t="n"/>
+      <c r="M29" s="4" t="n"/>
+      <c r="N29" s="4" t="n"/>
+      <c r="O29" s="4" t="n"/>
+      <c r="P29" s="4" t="n"/>
+      <c r="Q29" s="4" t="n"/>
+      <c r="R29" s="4" t="n"/>
+      <c r="S29" s="4" t="n"/>
+      <c r="T29" s="4" t="n"/>
+      <c r="U29" s="4" t="n"/>
+      <c r="V29" s="4" t="n"/>
+      <c r="W29" s="4" t="n"/>
+      <c r="X29" s="4" t="n"/>
+      <c r="Y29" s="4" t="n"/>
+      <c r="Z29" s="4" t="n"/>
+      <c r="AA29" s="4" t="n"/>
+      <c r="AB29" s="4" t="n"/>
+      <c r="AC29" s="4" t="n"/>
+      <c r="AD29" s="4" t="n"/>
+      <c r="AE29" s="4" t="n"/>
+      <c r="AF29" s="4" t="n"/>
+      <c r="AG29" s="4" t="n"/>
+      <c r="AH29" s="4" t="n"/>
+      <c r="AI29" s="4" t="n"/>
+      <c r="AJ29" s="4" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="4" t="n"/>
+      <c r="D30" s="4" t="n"/>
+      <c r="E30" s="4" t="n"/>
+      <c r="F30" s="4" t="n"/>
+      <c r="G30" s="4" t="n"/>
+      <c r="H30" s="4" t="n"/>
+      <c r="I30" s="4" t="n"/>
+      <c r="J30" s="4" t="n"/>
+      <c r="K30" s="4" t="n"/>
+      <c r="L30" s="4" t="n"/>
+      <c r="M30" s="4" t="n"/>
+      <c r="N30" s="4" t="n"/>
+      <c r="O30" s="4" t="n"/>
+      <c r="P30" s="4" t="n"/>
+      <c r="Q30" s="4" t="n"/>
+      <c r="R30" s="4" t="n"/>
+      <c r="S30" s="4" t="n"/>
+      <c r="T30" s="4" t="n"/>
+      <c r="U30" s="4" t="n"/>
+      <c r="V30" s="4" t="n"/>
+      <c r="W30" s="4" t="n"/>
+      <c r="X30" s="4" t="n"/>
+      <c r="Y30" s="4" t="n"/>
+      <c r="Z30" s="4" t="n"/>
+      <c r="AA30" s="4" t="n"/>
+      <c r="AB30" s="4" t="n"/>
+      <c r="AC30" s="4" t="n"/>
+      <c r="AD30" s="4" t="n"/>
+      <c r="AE30" s="4" t="n"/>
+      <c r="AF30" s="4" t="n"/>
+      <c r="AG30" s="4" t="n"/>
+      <c r="AH30" s="4" t="n"/>
+      <c r="AI30" s="4" t="n"/>
+      <c r="AJ30" s="4" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/app/files/table_test.xlsx
+++ b/app/files/table_test.xlsx
@@ -184,6 +184,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFE600"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="0044FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FF4400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1609,6 +1632,17 @@
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="D14:AJ14"/>
   </mergeCells>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="2" operator="greaterThan" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="lessThan" dxfId="2">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="3">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
